--- a/biology/Botanique/Geosiridaceae/Geosiridaceae.xlsx
+++ b/biology/Botanique/Geosiridaceae/Geosiridaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Géosiridacées regroupe des plantes monocotylédones. Selon Watson &amp; Dallwitz elle ne comprenait qu'une seule espèce Geosiris aphylla (en) endémique de Madagascar mais en 2010, une deuxième espèce a été décrite, Geosiris albiflora, dans l'île de Mayotte, au nord-ouest de Madagascar
 Ce sont des plantes herbacées dépourvues de chlorophylle, tirant leurs nutriments des champignons du sol. 
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Geosiris (en), dérivé des mots grecs geos, « terre », et du latin iris, par allusion à la famille des plantes du genre Iris, en référence au mode de nutrition de la plante qui est achlorophylle.
 </t>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification phylogénétique APG II (2003)[2] et en classification phylogénétique APG III (2009)[3] cette famille n'existe pas ; ces plantes sont incluses dans les Iridacées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG II (2003) et en classification phylogénétique APG III (2009) cette famille n'existe pas ; ces plantes sont incluses dans les Iridacées.
 </t>
         </is>
       </c>
